--- a/backup_xls/vistosi_originario.xlsx
+++ b/backup_xls/vistosi_originario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="4880" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="1760" yWindow="1740" windowWidth="25360" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -7445,9 +7445,6 @@
     <t xml:space="preserve">fumè/trasparente </t>
   </si>
   <si>
-    <t>NARANZA SP Poco</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -7455,6 +7452,9 @@
   </si>
   <si>
     <t>cristallo/trasparante</t>
+  </si>
+  <si>
+    <t>NARANZA SP P</t>
   </si>
 </sst>
 </file>
@@ -7941,7 +7941,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7951,8 +7951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:M1109 A137:M140 A176:M187 A210:M217 A220:M223 A1052:M1083 A1088:M1099 A137:M140 A176:M187 A210:M217 A220:M223 A1052:M1083 A1088:M1099 A137:M140 A176:M187 A210:M217 A220:M223 A1052:M1083 A1088:M1099"/>
+    <sheetView tabSelected="1" topLeftCell="D1065" workbookViewId="0">
+      <selection activeCell="M1084" sqref="M1084"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7994,7 +7994,7 @@
         <v>2461</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
@@ -32633,7 +32633,7 @@
       </c>
       <c r="D798" s="3"/>
       <c r="E798" s="3" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F798" s="3" t="s">
         <v>1296</v>
@@ -32664,7 +32664,7 @@
       </c>
       <c r="D799" s="3"/>
       <c r="E799" s="3" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F799" s="3" t="s">
         <v>1296</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="D820" s="3"/>
       <c r="E820" s="3" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F820" s="3" t="s">
         <v>1296</v>
@@ -33346,7 +33346,7 @@
       </c>
       <c r="D821" s="3"/>
       <c r="E821" s="3" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F821" s="3" t="s">
         <v>1296</v>
@@ -33935,7 +33935,7 @@
       </c>
       <c r="D840" s="3"/>
       <c r="E840" s="3" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F840" s="3" t="s">
         <v>1296</v>
@@ -33966,7 +33966,7 @@
       </c>
       <c r="D841" s="3"/>
       <c r="E841" s="3" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F841" s="3" t="s">
         <v>1296</v>
@@ -34555,7 +34555,7 @@
       </c>
       <c r="D860" s="3"/>
       <c r="E860" s="3" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F860" s="3" t="s">
         <v>1296</v>
@@ -34586,7 +34586,7 @@
       </c>
       <c r="D861" s="3"/>
       <c r="E861" s="3" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F861" s="3" t="s">
         <v>1296</v>
@@ -35423,7 +35423,7 @@
       </c>
       <c r="D888" s="3"/>
       <c r="E888" s="3" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F888" s="3" t="s">
         <v>1296</v>
@@ -35454,7 +35454,7 @@
       </c>
       <c r="D889" s="3"/>
       <c r="E889" s="3" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F889" s="3" t="s">
         <v>1296</v>
@@ -36043,7 +36043,7 @@
       </c>
       <c r="D908" s="3"/>
       <c r="E908" s="3" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F908" s="3" t="s">
         <v>1296</v>
@@ -36074,7 +36074,7 @@
       </c>
       <c r="D909" s="3"/>
       <c r="E909" s="3" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F909" s="3" t="s">
         <v>1296</v>
@@ -36663,7 +36663,7 @@
       </c>
       <c r="D928" s="3"/>
       <c r="E928" s="3" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F928" s="3" t="s">
         <v>1296</v>
@@ -36694,7 +36694,7 @@
       </c>
       <c r="D929" s="3"/>
       <c r="E929" s="3" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F929" s="3" t="s">
         <v>1296</v>
@@ -37004,7 +37004,7 @@
       </c>
       <c r="D939" s="3"/>
       <c r="E939" s="3" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F939" s="3" t="s">
         <v>1296</v>
@@ -37035,7 +37035,7 @@
       </c>
       <c r="D940" s="3"/>
       <c r="E940" s="3" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F940" s="3" t="s">
         <v>1296</v>
@@ -38244,7 +38244,7 @@
       </c>
       <c r="D979" s="3"/>
       <c r="E979" s="3" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F979" s="3" t="s">
         <v>1296</v>
@@ -38275,7 +38275,7 @@
       </c>
       <c r="D980" s="3"/>
       <c r="E980" s="3" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F980" s="3" t="s">
         <v>1296</v>
@@ -39174,7 +39174,7 @@
       </c>
       <c r="D1009" s="3"/>
       <c r="E1009" s="3" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="F1009" s="3" t="s">
         <v>1296</v>
@@ -39205,7 +39205,7 @@
       </c>
       <c r="D1010" s="3"/>
       <c r="E1010" s="3" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="F1010" s="3" t="s">
         <v>1296</v>
@@ -39298,7 +39298,7 @@
       </c>
       <c r="D1013" s="3"/>
       <c r="E1013" s="3" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F1013" s="3" t="s">
         <v>1296</v>
@@ -41532,7 +41532,7 @@
       <c r="G1085" s="3"/>
       <c r="H1085" s="3"/>
       <c r="I1085" s="3" t="s">
-        <v>2471</v>
+        <v>2474</v>
       </c>
       <c r="J1085" s="4" t="s">
         <v>6</v>
